--- a/OUT_DOCS/Список деталей ps422201(контроллер_рециркулятора)(fat94)Лехман Каракан.xlsx
+++ b/OUT_DOCS/Список деталей ps422201(контроллер_рециркулятора)(fat94)Лехман Каракан.xlsx
@@ -123,9 +123,6 @@
     <t>C7, C14</t>
   </si>
   <si>
-    <t>20mkF x 16</t>
-  </si>
-  <si>
     <t>C8, C9</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Q1, Q2, Q3, Q4</t>
+  </si>
+  <si>
+    <t>22mkF x 16</t>
   </si>
 </sst>
 </file>
@@ -659,6 +659,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,67 +739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1055,28 +1055,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
@@ -1105,16 +1105,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -1128,59 +1128,59 @@
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="31">
         <v>2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="31">
         <f t="shared" ref="E6:E7" si="0">PRODUCT(D6,2)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="38">
-        <v>500</v>
-      </c>
-      <c r="G6" s="38">
+      <c r="F6" s="31">
+        <v>500</v>
+      </c>
+      <c r="G6" s="31">
         <f t="shared" ref="G6:G7" si="1">PRODUCT(D6,F6)</f>
         <v>1000</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="36">
         <v>2</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="38">
-        <v>500</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="F7" s="31">
+        <v>500</v>
+      </c>
+      <c r="G7" s="36">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -1199,26 +1199,26 @@
         <v>24</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="38">
         <v>4</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="31">
         <f>PRODUCT(D9,2)</f>
         <v>8</v>
       </c>
-      <c r="F9" s="38">
-        <v>500</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="F9" s="31">
+        <v>500</v>
+      </c>
+      <c r="G9" s="31">
         <f t="shared" ref="G9:G13" si="2">PRODUCT(D9,F9)</f>
         <v>2000</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
@@ -1226,26 +1226,26 @@
         <v>15</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="38">
         <v>10</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="31">
         <f t="shared" ref="E10:E12" si="3">PRODUCT(D10,2)</f>
         <v>20</v>
       </c>
-      <c r="F10" s="38">
-        <v>500</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="F10" s="31">
+        <v>500</v>
+      </c>
+      <c r="G10" s="31">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
@@ -1253,26 +1253,26 @@
         <v>16</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <f>PRODUCT(D11,2)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="38">
-        <v>500</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="F11" s="31">
+        <v>500</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
@@ -1280,53 +1280,53 @@
         <v>25</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="40">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F12" s="38">
-        <v>500</v>
-      </c>
-      <c r="G12" s="47">
+      <c r="F12" s="31">
+        <v>500</v>
+      </c>
+      <c r="G12" s="40">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H12" s="48"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="38">
         <v>3</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="40">
         <f>PRODUCT(D13,2)</f>
         <v>6</v>
       </c>
-      <c r="F13" s="38">
-        <v>500</v>
-      </c>
-      <c r="G13" s="47">
+      <c r="F13" s="31">
+        <v>500</v>
+      </c>
+      <c r="G13" s="40">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
@@ -1346,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>17</v>
@@ -1354,11 +1354,11 @@
       <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="42">
         <f>PRODUCT(D15,2)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="31">
         <v>500</v>
       </c>
       <c r="G15" s="16">
@@ -1379,59 +1379,59 @@
       <c r="G16" s="10"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="50" t="s">
-        <v>44</v>
+    <row r="17" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="42">
         <v>4</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="42">
         <f>PRODUCT(D17,3)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="38">
-        <v>500</v>
-      </c>
-      <c r="G17" s="49">
+      <c r="F17" s="31">
+        <v>500</v>
+      </c>
+      <c r="G17" s="42">
         <f>PRODUCT(D17,F17)</f>
         <v>2000</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="42">
         <f>PRODUCT(D18,3)</f>
         <v>3</v>
       </c>
-      <c r="F18" s="38">
-        <v>500</v>
-      </c>
-      <c r="G18" s="49">
+      <c r="F18" s="31">
+        <v>500</v>
+      </c>
+      <c r="G18" s="42">
         <f>PRODUCT(D18,F18)</f>
         <v>500</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
       <c r="A19" s="14" t="s">
@@ -1445,7 +1445,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
@@ -1455,24 +1455,24 @@
       <c r="C20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="40">
         <v>1</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="42">
         <f>PRODUCT(D20,20)</f>
         <v>20</v>
       </c>
-      <c r="F20" s="38">
-        <v>500</v>
-      </c>
-      <c r="G20" s="47">
+      <c r="F20" s="31">
+        <v>500</v>
+      </c>
+      <c r="G20" s="40">
         <f t="shared" ref="G20:G21" si="4">PRODUCT(D20,F20)</f>
         <v>500</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="1:9" s="53" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="H20" s="41"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" s="46" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="23" t="s">
         <v>26</v>
       </c>
@@ -1482,36 +1482,36 @@
       <c r="C21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="47">
         <v>1</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="42">
         <f>PRODUCT(D21,3)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="38">
-        <v>500</v>
-      </c>
-      <c r="G21" s="54">
+      <c r="F21" s="31">
+        <v>500</v>
+      </c>
+      <c r="G21" s="47">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="52"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="3">
         <f>SUM(D6:D21)</f>
         <v>31</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="4">
         <f>SUM(G5:G21)</f>
         <v>15500</v>
@@ -1519,17 +1519,17 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="3">
         <f>SUM(E6:E21)</f>
         <v>86</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="4"/>
     </row>
   </sheetData>
